--- a/import/prep/excel/64-1ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ สค63 (1-31ตค63).xlsx
+++ b/import/prep/excel/64-1ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ สค63 (1-31ตค63).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B904A8FA-6A7C-2645-B99A-594B137D4EE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DEF2A4-F575-2843-BFC6-04F8D6F7D426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$T$829</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$AA$250</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11668,7 +11668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -11780,17 +11780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -11807,7 +11796,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12195,6 +12184,10 @@
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12228,7 +12221,10 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12243,27 +12239,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12276,11 +12251,11 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12294,16 +12269,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12320,6 +12298,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12634,22 +12615,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="156" t="s">
         <v>3175</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="139"/>
@@ -12671,25 +12652,25 @@
       <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="155" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="155" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="159" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="140" t="s">
@@ -12698,47 +12679,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="153" t="s">
+      <c r="J3" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="155" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="153" t="s">
+      <c r="M3" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="156" t="s">
+      <c r="N3" s="158" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="153"/>
-      <c r="B4" s="153"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="138" t="s">
         <v>2382</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
       <c r="F4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="157"/>
+      <c r="G4" s="159"/>
       <c r="H4" s="140" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
       <c r="L4" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="153"/>
-      <c r="N4" s="156"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="158"/>
       <c r="R4" s="100" t="s">
         <v>3177</v>
       </c>
@@ -54719,22 +54700,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="157" t="s">
         <v>3176</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
       <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -54755,25 +54736,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="160" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="158" t="s">
+      <c r="D3" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="158" t="s">
+      <c r="E3" s="160" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="160" t="s">
+      <c r="G3" s="162" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="140" t="s">
@@ -54782,47 +54763,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="158" t="s">
+      <c r="J3" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="160" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="158" t="s">
+      <c r="M3" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="162" t="s">
+      <c r="N3" s="164" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="138" t="s">
         <v>2382</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
       <c r="F4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="161"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="140" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
       <c r="L4" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="159"/>
-      <c r="N4" s="163"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="165"/>
       <c r="Q4" s="102"/>
       <c r="R4" s="103" t="s">
         <v>3177</v>
@@ -67583,8 +67564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:W1048576"/>
+    <sheetView topLeftCell="H238" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V251" sqref="V251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -67610,29 +67591,29 @@
     <col min="25" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="176" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="172" t="s">
         <v>3816</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
       <c r="R1" s="53"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A2" s="54"/>
       <c r="B2" s="137"/>
       <c r="C2" s="54"/>
@@ -67656,85 +67637,85 @@
       </c>
       <c r="R2" s="58"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="153" t="s">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="177" t="s">
+      <c r="D3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="158" t="s">
+      <c r="F3" s="160" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="158" t="s">
+      <c r="H3" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="174" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="123"/>
-      <c r="K3" s="165" t="s">
+      <c r="K3" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="169" t="s">
+      <c r="L3" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="165" t="s">
+      <c r="M3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="165" t="s">
+      <c r="N3" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="165" t="s">
+      <c r="O3" s="168" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="167" t="s">
+      <c r="Q3" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="172" t="s">
+      <c r="R3" s="166" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="153"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="159"/>
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="155"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="179"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="124"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
       <c r="P4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="173"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q4" s="171"/>
+      <c r="R4" s="167"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
         <v>1</v>
       </c>
@@ -67794,7 +67775,7 @@
       </c>
       <c r="R5" s="66"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -67804,13 +67785,13 @@
       <c r="C6" s="26" t="s">
         <v>3442</v>
       </c>
-      <c r="D6" s="182" t="s">
+      <c r="D6" s="178" t="s">
         <v>2197</v>
       </c>
-      <c r="E6" s="184" t="s">
+      <c r="E6" s="180" t="s">
         <v>2198</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="180" t="s">
         <v>2180</v>
       </c>
       <c r="G6" s="112" t="s">
@@ -67849,12 +67830,21 @@
         <f t="shared" si="1"/>
         <v>26.21</v>
       </c>
-      <c r="Q6" s="180">
+      <c r="Q6" s="65">
+        <v>26.25</v>
+      </c>
+      <c r="R6" s="154">
+        <v>26.25</v>
+      </c>
+      <c r="S6">
+        <f>SUM(R6:R7)</f>
         <v>52.5</v>
       </c>
-      <c r="R6" s="66"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="T6" s="153">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="51">
         <v>3</v>
       </c>
@@ -67864,9 +67854,9 @@
       <c r="C7" s="26" t="s">
         <v>3443</v>
       </c>
-      <c r="D7" s="183"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
       <c r="G7" s="112" t="s">
         <v>3</v>
       </c>
@@ -67903,10 +67893,14 @@
         <f t="shared" si="1"/>
         <v>26.21</v>
       </c>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="66"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q7" s="65">
+        <v>26.25</v>
+      </c>
+      <c r="R7" s="154">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="51">
         <v>4</v>
       </c>
@@ -67916,13 +67910,13 @@
       <c r="C8" s="26" t="s">
         <v>3444</v>
       </c>
-      <c r="D8" s="182" t="s">
+      <c r="D8" s="178" t="s">
         <v>2199</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="180" t="s">
         <v>2198</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="180" t="s">
         <v>2180</v>
       </c>
       <c r="G8" s="112" t="s">
@@ -67961,12 +67955,21 @@
         <f t="shared" si="1"/>
         <v>393.22</v>
       </c>
-      <c r="Q8" s="180">
+      <c r="Q8" s="65">
+        <v>393.25</v>
+      </c>
+      <c r="R8" s="154">
+        <v>393.25</v>
+      </c>
+      <c r="S8">
+        <f>SUM(R8:R9)</f>
         <v>670.5</v>
       </c>
-      <c r="R8" s="66"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="T8" s="153">
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="51">
         <v>5</v>
       </c>
@@ -67976,9 +67979,9 @@
       <c r="C9" s="26" t="s">
         <v>3445</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
       <c r="G9" s="112" t="s">
         <v>3</v>
       </c>
@@ -68015,10 +68018,14 @@
         <f t="shared" si="1"/>
         <v>277.13</v>
       </c>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q9" s="65">
+        <v>277.25</v>
+      </c>
+      <c r="R9" s="154">
+        <v>277.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="51">
         <v>6</v>
       </c>
@@ -68078,7 +68085,7 @@
       </c>
       <c r="R10" s="66"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="51">
         <v>7</v>
       </c>
@@ -68138,7 +68145,7 @@
       </c>
       <c r="R11" s="66"/>
     </row>
-    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="51">
         <v>8</v>
       </c>
@@ -68198,7 +68205,7 @@
       </c>
       <c r="R12" s="66"/>
     </row>
-    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="51">
         <v>9</v>
       </c>
@@ -68258,7 +68265,7 @@
       </c>
       <c r="R13" s="66"/>
     </row>
-    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="51">
         <v>10</v>
       </c>
@@ -68318,7 +68325,7 @@
       </c>
       <c r="R14" s="66"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="51">
         <v>11</v>
       </c>
@@ -68378,7 +68385,7 @@
       </c>
       <c r="R15" s="66"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="51">
         <v>12</v>
       </c>
@@ -82724,9 +82731,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q6:Q7"/>
+  <mergeCells count="22">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E6:E7"/>
@@ -82759,8 +82764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="F66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -82791,25 +82796,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="172" t="s">
         <v>3437</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
       <c r="R1" s="53"/>
       <c r="S1" s="145"/>
       <c r="T1" s="145"/>
@@ -82845,99 +82850,99 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="177" t="s">
+      <c r="D3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="158" t="s">
+      <c r="F3" s="160" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="158" t="s">
+      <c r="H3" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="174" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="123"/>
-      <c r="K3" s="165" t="s">
+      <c r="K3" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="169" t="s">
+      <c r="L3" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="165" t="s">
+      <c r="M3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="165" t="s">
+      <c r="N3" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="165" t="s">
+      <c r="O3" s="168" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="167" t="s">
+      <c r="Q3" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="194" t="s">
+      <c r="R3" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="174">
+      <c r="S3" s="186">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="171" t="s">
+      <c r="T3" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="164" t="s">
+      <c r="V3" s="183" t="s">
         <v>20</v>
       </c>
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="153"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="159"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="179"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="124"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
       <c r="P4" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="164"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="191"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="182"/>
+      <c r="V4" s="183"/>
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -84746,7 +84751,7 @@
       <c r="V32" s="70"/>
       <c r="AA32" s="64"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A33" s="51">
         <v>29</v>
       </c>
@@ -84807,7 +84812,7 @@
       <c r="R33" s="66"/>
       <c r="U33" s="72"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" s="51">
         <v>30</v>
       </c>
@@ -84868,7 +84873,7 @@
       <c r="R34" s="66"/>
       <c r="U34" s="70"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A35" s="51">
         <v>31</v>
       </c>
@@ -84932,7 +84937,7 @@
       <c r="U35" s="70"/>
       <c r="V35" s="70"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A36" s="51">
         <v>32</v>
       </c>
@@ -84993,7 +84998,7 @@
       <c r="R36" s="66"/>
       <c r="U36" s="70"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A37" s="51">
         <v>33</v>
       </c>
@@ -85055,7 +85060,7 @@
       <c r="U37" s="70"/>
       <c r="V37" s="70"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A38" s="51">
         <v>34</v>
       </c>
@@ -85116,7 +85121,7 @@
       <c r="R38" s="66"/>
       <c r="U38" s="72"/>
     </row>
-    <row r="39" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="51">
         <v>35</v>
       </c>
@@ -85177,7 +85182,7 @@
       <c r="R39" s="66"/>
       <c r="U39" s="70"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A40" s="51">
         <v>36</v>
       </c>
@@ -85241,7 +85246,7 @@
       <c r="U40" s="70"/>
       <c r="V40" s="70"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A41" s="51">
         <v>37</v>
       </c>
@@ -85302,7 +85307,7 @@
       <c r="R41" s="66"/>
       <c r="U41" s="70"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A42" s="51">
         <v>38</v>
       </c>
@@ -85364,7 +85369,7 @@
       <c r="U42" s="70"/>
       <c r="V42" s="70"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A43" s="51">
         <v>39</v>
       </c>
@@ -85427,7 +85432,7 @@
       <c r="T43" s="72"/>
       <c r="U43" s="72"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A44" s="51">
         <v>40</v>
       </c>
@@ -85488,7 +85493,7 @@
       <c r="R44" s="66"/>
       <c r="U44" s="70"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A45" s="51">
         <v>41</v>
       </c>
@@ -85550,7 +85555,7 @@
       <c r="U45" s="70"/>
       <c r="V45" s="70"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A46" s="51">
         <v>42</v>
       </c>
@@ -85611,7 +85616,7 @@
       <c r="R46" s="66"/>
       <c r="U46" s="70"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A47" s="51">
         <v>43</v>
       </c>
@@ -85673,7 +85678,7 @@
       <c r="U47" s="70"/>
       <c r="V47" s="70"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A48" s="51">
         <v>44</v>
       </c>
@@ -85683,13 +85688,13 @@
       <c r="C48" s="26" t="s">
         <v>3644</v>
       </c>
-      <c r="D48" s="190" t="s">
+      <c r="D48" s="187" t="s">
         <v>2634</v>
       </c>
-      <c r="E48" s="192" t="s">
+      <c r="E48" s="189" t="s">
         <v>2635</v>
       </c>
-      <c r="F48" s="192" t="s">
+      <c r="F48" s="189" t="s">
         <v>2636</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -85728,8 +85733,8 @@
         <f t="shared" si="5"/>
         <v>2495.2399999999998</v>
       </c>
-      <c r="Q48" s="180">
-        <v>4857.8</v>
+      <c r="Q48" s="69">
+        <v>2495.2399999999998</v>
       </c>
       <c r="R48" s="66" t="s">
         <v>3646</v>
@@ -85737,8 +85742,18 @@
       <c r="S48" s="72"/>
       <c r="T48" s="72"/>
       <c r="U48" s="72"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W48" s="69">
+        <v>2495.2399999999998</v>
+      </c>
+      <c r="X48" s="69">
+        <f>SUM(W48:W49)</f>
+        <v>4857.7999999999993</v>
+      </c>
+      <c r="Y48" s="153">
+        <v>4857.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A49" s="51">
         <v>45</v>
       </c>
@@ -85748,9 +85763,9 @@
       <c r="C49" s="26" t="s">
         <v>3645</v>
       </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="193"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="190"/>
+      <c r="F49" s="190"/>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -85787,7 +85802,9 @@
         <f t="shared" si="5"/>
         <v>2362.56</v>
       </c>
-      <c r="Q49" s="181"/>
+      <c r="Q49" s="69">
+        <v>2362.56</v>
+      </c>
       <c r="R49" s="66" t="s">
         <v>3646</v>
       </c>
@@ -85801,13 +85818,16 @@
       </c>
       <c r="U49" s="147">
         <f>SUM(Q25:Q49)</f>
-        <v>6940.3</v>
+        <v>6940.2999999999993</v>
       </c>
       <c r="V49" s="146">
         <v>6940.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W49" s="69">
+        <v>2362.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A50" s="51">
         <v>46</v>
       </c>
@@ -85869,7 +85889,7 @@
       <c r="U50" s="70"/>
       <c r="V50" s="70"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A51" s="51">
         <v>47</v>
       </c>
@@ -85932,7 +85952,7 @@
       <c r="T51" s="72"/>
       <c r="U51" s="70"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A52" s="51">
         <v>48</v>
       </c>
@@ -85994,7 +86014,7 @@
       <c r="U52" s="70"/>
       <c r="V52" s="70"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A53" s="51">
         <v>49</v>
       </c>
@@ -86055,7 +86075,7 @@
       <c r="R53" s="66"/>
       <c r="U53" s="72"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A54" s="51">
         <v>50</v>
       </c>
@@ -86116,7 +86136,7 @@
       <c r="R54" s="66"/>
       <c r="U54" s="70"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A55" s="51">
         <v>51</v>
       </c>
@@ -86178,7 +86198,7 @@
       <c r="U55" s="70"/>
       <c r="V55" s="70"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A56" s="51">
         <v>52</v>
       </c>
@@ -86241,7 +86261,7 @@
       <c r="T56" s="72"/>
       <c r="U56" s="70"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A57" s="51">
         <v>53</v>
       </c>
@@ -86303,7 +86323,7 @@
       <c r="U57" s="70"/>
       <c r="V57" s="70"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A58" s="51">
         <v>54</v>
       </c>
@@ -86364,7 +86384,7 @@
       <c r="R58" s="73"/>
       <c r="U58" s="72"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A59" s="51">
         <v>55</v>
       </c>
@@ -86427,7 +86447,7 @@
       <c r="T59" s="72"/>
       <c r="U59" s="70"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A60" s="51">
         <v>56</v>
       </c>
@@ -86489,7 +86509,7 @@
       <c r="U60" s="70"/>
       <c r="V60" s="70"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A61" s="51">
         <v>57</v>
       </c>
@@ -86550,7 +86570,7 @@
       <c r="R61" s="73"/>
       <c r="U61" s="70"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A62" s="51">
         <v>58</v>
       </c>
@@ -86612,7 +86632,7 @@
       <c r="U62" s="70"/>
       <c r="V62" s="70"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A63" s="51">
         <v>59</v>
       </c>
@@ -86673,7 +86693,7 @@
       <c r="R63" s="73"/>
       <c r="U63" s="72"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A64" s="51">
         <v>60</v>
       </c>
@@ -87751,13 +87771,20 @@
         <f t="shared" si="12"/>
         <v>25.68</v>
       </c>
-      <c r="Q80" s="186">
+      <c r="Q80" s="72">
+        <v>25.68</v>
+      </c>
+      <c r="R80" s="73"/>
+      <c r="S80" s="72">
+        <v>25.68</v>
+      </c>
+      <c r="T80" s="72">
+        <f>SUM(S80:S84)</f>
         <v>201.25</v>
       </c>
-      <c r="R80" s="73"/>
-      <c r="S80" s="72"/>
-      <c r="T80" s="72"/>
-      <c r="U80" s="70"/>
+      <c r="U80" s="192">
+        <v>201.25</v>
+      </c>
       <c r="V80" s="70"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.4">
@@ -87815,8 +87842,13 @@
         <f t="shared" si="12"/>
         <v>25.68</v>
       </c>
-      <c r="Q81" s="187"/>
+      <c r="Q81" s="70">
+        <v>25.68</v>
+      </c>
       <c r="R81" s="73"/>
+      <c r="S81" s="70">
+        <v>25.68</v>
+      </c>
       <c r="U81" s="70"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.4">
@@ -87874,8 +87906,13 @@
         <f t="shared" si="12"/>
         <v>21.4</v>
       </c>
-      <c r="Q82" s="187"/>
+      <c r="Q82" s="70">
+        <v>21.49</v>
+      </c>
       <c r="R82" s="73"/>
+      <c r="S82" s="70">
+        <v>21.49</v>
+      </c>
       <c r="U82" s="70"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.4">
@@ -87933,8 +87970,13 @@
         <f t="shared" si="12"/>
         <v>51.36</v>
       </c>
-      <c r="Q83" s="187"/>
+      <c r="Q83" s="70">
+        <v>51.36</v>
+      </c>
       <c r="R83" s="73"/>
+      <c r="S83" s="70">
+        <v>51.36</v>
+      </c>
       <c r="U83" s="70"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.4">
@@ -87991,8 +88033,13 @@
         <f>ROUNDDOWN(H84+I84+N84,2)</f>
         <v>77.040000000000006</v>
       </c>
-      <c r="Q84" s="188"/>
+      <c r="Q84" s="70">
+        <v>77.040000000000006</v>
+      </c>
       <c r="R84" s="73"/>
+      <c r="S84" s="70">
+        <v>77.040000000000006</v>
+      </c>
       <c r="U84" s="70"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.4">
@@ -88596,7 +88643,7 @@
       </c>
       <c r="Q94" s="83">
         <f>SUM(Q5:Q93)</f>
-        <v>27122.14</v>
+        <v>27122.140000000003</v>
       </c>
       <c r="R94" s="84"/>
       <c r="U94" s="70"/>
@@ -88625,15 +88672,15 @@
       <c r="R95" s="67"/>
       <c r="S95" s="148">
         <f>SUM(S5:S94)</f>
-        <v>1773.8000000000002</v>
+        <v>1975.0500000000002</v>
       </c>
       <c r="T95" s="149">
         <f>SUM(T5:T94)</f>
-        <v>27113.8</v>
+        <v>27315.05</v>
       </c>
       <c r="U95" s="150">
         <f>SUM(U5:U94)</f>
-        <v>27122.14</v>
+        <v>27323.39</v>
       </c>
       <c r="V95" s="150">
         <f>SUM(V5:V94)</f>
@@ -88696,7 +88743,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="23">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -88708,12 +88755,10 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:F49"/>
-    <mergeCell ref="Q48:Q49"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="Q80:Q84"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="M3:M4"/>
